--- a/data/test_inputs/weights/weights_1_mech.xlsx
+++ b/data/test_inputs/weights/weights_1_mech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/test_inputs/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CEF264-56D2-674D-86D0-ADC43957E63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4BA874-8034-4646-BA0C-6B8F5DCA0B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="500" windowWidth="19360" windowHeight="18440" xr2:uid="{B7E2081D-577B-684F-9742-E21C9EA83400}"/>
+    <workbookView xWindow="-420" yWindow="500" windowWidth="19360" windowHeight="18440" xr2:uid="{B7E2081D-577B-684F-9742-E21C9EA83400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>B</t>
+    <t>0_degree</t>
   </si>
   <si>
-    <t>C</t>
+    <t>90_degree</t>
   </si>
 </sst>
 </file>
@@ -74,9 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +393,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,7 +413,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0.2</v>
       </c>
     </row>
